--- a/Tables_data/Species Lists_Proportions/merged_SppList_Prop_lower.xlsx
+++ b/Tables_data/Species Lists_Proportions/merged_SppList_Prop_lower.xlsx
@@ -5,25 +5,29 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alissa.iverson\.ssh\HLC_soil_and_veg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alissa.iverson\.ssh\HLC_soil_and_veg\Tables_data\Species Lists_Proportions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5119D217-6F5B-4F27-8732-F199B09A13EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B2A964-68B7-453A-85C4-ADEC67FD2086}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="Formatted" sheetId="2" r:id="rId2"/>
+    <sheet name="AG_Top" sheetId="3" r:id="rId3"/>
+    <sheet name="BG_Top" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">AG_Top!$A$1:$I$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">BG_Top!$A$1:$I$55</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="78">
-  <si>
-    <t>VegHit_SoilSurfaceHit</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="83">
   <si>
     <t>Longevity</t>
   </si>
@@ -31,24 +35,9 @@
     <t>Habit</t>
   </si>
   <si>
-    <t>WIS_GP</t>
-  </si>
-  <si>
     <t>Nativity</t>
   </si>
   <si>
-    <t>Freq2.x</t>
-  </si>
-  <si>
-    <t>prop.x</t>
-  </si>
-  <si>
-    <t>Freq2.y</t>
-  </si>
-  <si>
-    <t>prop.y</t>
-  </si>
-  <si>
     <t>Ambrosia trifida</t>
   </si>
   <si>
@@ -254,13 +243,46 @@
   </si>
   <si>
     <t>Verbascum thapsus</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>WIS</t>
+  </si>
+  <si>
+    <t>Frequency AG</t>
+  </si>
+  <si>
+    <t>Proportion AG</t>
+  </si>
+  <si>
+    <t>Frequency BG</t>
+  </si>
+  <si>
+    <t>Proportion BG</t>
+  </si>
+  <si>
+    <t>Species in lower bank</t>
+  </si>
+  <si>
+    <t>Freq AG</t>
+  </si>
+  <si>
+    <t>Prop AG</t>
+  </si>
+  <si>
+    <t>Freq BG</t>
+  </si>
+  <si>
+    <t>Prop BG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +292,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -291,7 +320,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -299,19 +328,95 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -649,59 +754,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
+      <c r="F1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -712,19 +825,19 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -735,19 +848,19 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -758,19 +871,19 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F5">
         <v>7</v>
@@ -781,19 +894,19 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -804,19 +917,19 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F7">
         <v>14</v>
@@ -827,19 +940,19 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H8">
         <v>5</v>
@@ -850,16 +963,16 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -870,16 +983,16 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -890,19 +1003,19 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -913,19 +1026,19 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -936,19 +1049,19 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -959,19 +1072,19 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F14">
         <v>3</v>
@@ -988,19 +1101,19 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H15">
         <v>6</v>
@@ -1011,19 +1124,19 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H16">
         <v>5</v>
@@ -1034,19 +1147,19 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1057,19 +1170,19 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -1080,19 +1193,19 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
         <v>11</v>
       </c>
-      <c r="D19" t="s">
-        <v>17</v>
-      </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1103,19 +1216,19 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H20">
         <v>5</v>
@@ -1126,19 +1239,19 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1149,19 +1262,19 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
         <v>19</v>
       </c>
-      <c r="D22" t="s">
-        <v>25</v>
-      </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H22">
         <v>9</v>
@@ -1172,19 +1285,2641 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H23">
         <v>222</v>
       </c>
       <c r="I23">
         <v>0.50226244343891402</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>2.0408163E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>2.2624434389140269E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>2.2624434389140269E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>4.5248868778280547E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>6.8027210000000003E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29">
+        <v>3.4013605000000002E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30">
+        <v>66</v>
+      </c>
+      <c r="G30">
+        <v>0.44897959199999998</v>
+      </c>
+      <c r="H30">
+        <v>59</v>
+      </c>
+      <c r="I30">
+        <v>0.1334841628959276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>6.8027210000000003E-3</v>
+      </c>
+      <c r="H31">
+        <v>16</v>
+      </c>
+      <c r="I31">
+        <v>3.6199095022624438E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <v>6.7873303167420816E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33">
+        <v>9</v>
+      </c>
+      <c r="I33">
+        <v>2.0361990950226241E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>2.2624434389140269E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>2.2624434389140269E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36">
+        <v>3.4013605000000002E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37">
+        <v>48</v>
+      </c>
+      <c r="I37">
+        <v>0.10859728506787331</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38">
+        <v>10</v>
+      </c>
+      <c r="I38">
+        <v>2.2624434389140271E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>2.2624434389140269E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>1.3605442000000001E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41">
+        <v>6</v>
+      </c>
+      <c r="G41">
+        <v>4.0816326999999999E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>6.8027210000000003E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43">
+        <v>11</v>
+      </c>
+      <c r="I43">
+        <v>2.48868778280543E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44">
+        <v>4.5248868778280547E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>6.8027210000000003E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+      <c r="G46">
+        <v>2.7210884000000001E-2</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>2.2624434389140269E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="G47">
+        <v>2.7210884000000001E-2</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <v>6.7873303167420816E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <v>6.7873303167420816E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+      <c r="G49">
+        <v>2.7210884000000001E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50">
+        <v>4</v>
+      </c>
+      <c r="G50">
+        <v>2.7210884000000001E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>1.3605442000000001E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>67</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>2.2624434389140269E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>2.2624434389140269E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54">
+        <v>4.5248868778280547E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55">
+        <v>3</v>
+      </c>
+      <c r="I55">
+        <v>6.7873303167420816E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>6.8027210000000003E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E14834-740E-4B96-AD30-A451AB9855CC}">
+  <dimension ref="A1:I55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="A1:I55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>2.0408163E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>6.8027210000000003E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>2.2624434389140269E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>4.7619047999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>6.7873303167420816E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <v>9.5238094999999995E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>1.1312217194570141E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>6.8027210000000003E-3</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>9.0497737556561094E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>6.8027210000000003E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>2.0408163E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>6.8027210000000003E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>2.0408163E-2</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>2.2624434389140269E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>1.357466063348416E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>1.1312217194570141E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>2.2624434389140269E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>1.3605442000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>2.2624434389140269E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>1.1312217194570141E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>6.8027210000000003E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21">
+        <v>9</v>
+      </c>
+      <c r="I21">
+        <v>2.0361990950226241E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22">
+        <v>222</v>
+      </c>
+      <c r="I22">
+        <v>0.50226244343891402</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>2.0408163E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>2.2624434389140269E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>2.2624434389140269E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>4.5248868778280547E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>6.8027210000000003E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <v>3.4013605000000002E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29">
+        <v>66</v>
+      </c>
+      <c r="G29">
+        <v>0.44897959199999998</v>
+      </c>
+      <c r="H29">
+        <v>59</v>
+      </c>
+      <c r="I29">
+        <v>0.1334841628959276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>6.8027210000000003E-3</v>
+      </c>
+      <c r="H30">
+        <v>16</v>
+      </c>
+      <c r="I30">
+        <v>3.6199095022624438E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <v>6.7873303167420816E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32">
+        <v>9</v>
+      </c>
+      <c r="I32">
+        <v>2.0361990950226241E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>2.2624434389140269E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>2.2624434389140269E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35">
+        <v>3.4013605000000002E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36">
+        <v>48</v>
+      </c>
+      <c r="I36">
+        <v>0.10859728506787331</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37">
+        <v>10</v>
+      </c>
+      <c r="I37">
+        <v>2.2624434389140271E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>2.2624434389140269E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>1.3605442000000001E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40">
+        <v>6</v>
+      </c>
+      <c r="G40">
+        <v>4.0816326999999999E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>6.8027210000000003E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42">
+        <v>11</v>
+      </c>
+      <c r="I42">
+        <v>2.48868778280543E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43">
+        <v>4.5248868778280547E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>6.8027210000000003E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="G45">
+        <v>2.7210884000000001E-2</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>2.2624434389140269E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+      <c r="G46">
+        <v>2.7210884000000001E-2</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46">
+        <v>6.7873303167420816E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <v>6.7873303167420816E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
+      <c r="G48">
+        <v>2.7210884000000001E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+      <c r="G49">
+        <v>2.7210884000000001E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>1.3605442000000001E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>67</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>2.2624434389140269E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>2.2624434389140269E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53">
+        <v>2</v>
+      </c>
+      <c r="I53">
+        <v>4.5248868778280547E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54">
+        <v>3</v>
+      </c>
+      <c r="I54">
+        <v>6.7873303167420816E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>6.8027210000000003E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62ABE039-2F08-483B-95BC-5F63F46B4352}">
+  <dimension ref="A1:I55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="A1:I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="11">
+        <v>66</v>
+      </c>
+      <c r="G2" s="12">
+        <v>0.44897959199999998</v>
+      </c>
+      <c r="H2" s="11">
+        <v>59</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0.1334841628959276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="11">
+        <v>14</v>
+      </c>
+      <c r="G3" s="12">
+        <v>9.5238094999999995E-2</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="11">
+        <v>7</v>
+      </c>
+      <c r="G4" s="12">
+        <v>4.7619047999999997E-2</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="11">
+        <v>6</v>
+      </c>
+      <c r="G5" s="12">
+        <v>4.0816326999999999E-2</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11">
+        <v>5</v>
+      </c>
+      <c r="G6" s="12">
+        <v>3.4013605000000002E-2</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="11">
+        <v>5</v>
+      </c>
+      <c r="G7" s="12">
+        <v>3.4013605000000002E-2</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="11">
+        <v>4</v>
+      </c>
+      <c r="G8" s="12">
+        <v>2.7210884000000001E-2</v>
+      </c>
+      <c r="H8" s="11">
+        <v>1</v>
+      </c>
+      <c r="I8" s="12">
+        <v>2.2624434389140269E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="11">
+        <v>4</v>
+      </c>
+      <c r="G9" s="12">
+        <v>2.7210884000000001E-2</v>
+      </c>
+      <c r="H9" s="11">
+        <v>3</v>
+      </c>
+      <c r="I9" s="12">
+        <v>6.7873303167420816E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="11">
+        <v>4</v>
+      </c>
+      <c r="G10" s="12">
+        <v>2.7210884000000001E-2</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="11">
+        <v>4</v>
+      </c>
+      <c r="G11" s="12">
+        <v>2.7210884000000001E-2</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="11">
+        <v>3</v>
+      </c>
+      <c r="G12" s="12">
+        <v>2.0408163E-2</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="11">
+        <v>3</v>
+      </c>
+      <c r="G13" s="12">
+        <v>2.0408163E-2</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="11">
+        <v>3</v>
+      </c>
+      <c r="G14" s="12">
+        <v>2.0408163E-2</v>
+      </c>
+      <c r="H14" s="11">
+        <v>1</v>
+      </c>
+      <c r="I14" s="12">
+        <v>2.2624434389140269E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="11">
+        <v>3</v>
+      </c>
+      <c r="G15" s="12">
+        <v>2.0408163E-2</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="11">
+        <v>2</v>
+      </c>
+      <c r="G16" s="12">
+        <v>1.3605442000000001E-2</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="11">
+        <v>2</v>
+      </c>
+      <c r="G17" s="12">
+        <v>1.3605442000000001E-2</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="11">
+        <v>2</v>
+      </c>
+      <c r="G18" s="12">
+        <v>1.3605442000000001E-2</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="8">
+        <v>6.8027210000000003E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="8">
+        <v>6.8027210000000003E-3</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20" s="8">
+        <v>9.0497737556561094E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" s="8">
+        <v>6.8027210000000003E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="8">
+        <v>6.8027210000000003E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="8">
+        <v>6.8027210000000003E-3</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1192,737 +3927,2002 @@
         <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="8">
+        <v>6.8027210000000003E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" s="8">
+        <v>6.8027210000000003E-3</v>
+      </c>
+      <c r="H25">
+        <v>16</v>
+      </c>
+      <c r="I25" s="8">
+        <v>3.6199095022624438E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" s="8">
+        <v>6.8027210000000003E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" s="8">
+        <v>6.8027210000000003E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="8">
+        <v>6.8027210000000003E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
         <v>11</v>
       </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" s="8">
+        <v>2.2624434389140269E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30" s="8">
+        <v>6.7873303167420816E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+      <c r="I31" s="8">
+        <v>1.1312217194570141E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32">
+        <v>6</v>
+      </c>
+      <c r="I32" s="8">
+        <v>1.357466063348416E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="I33" s="8">
+        <v>1.1312217194570141E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34" s="8">
+        <v>2.2624434389140269E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" s="8">
+        <v>2.2624434389140269E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36">
+        <v>5</v>
+      </c>
+      <c r="I36" s="8">
+        <v>1.1312217194570141E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37">
+        <v>9</v>
+      </c>
+      <c r="I37" s="8">
+        <v>2.0361990950226241E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>36</v>
+      </c>
+      <c r="H38">
+        <v>222</v>
+      </c>
+      <c r="I38" s="8">
+        <v>0.50226244343891402</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39" s="8">
+        <v>2.2624434389140269E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40" s="8">
+        <v>2.2624434389140269E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41" s="8">
+        <v>4.5248868778280547E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42">
+        <v>3</v>
+      </c>
+      <c r="I42" s="8">
+        <v>6.7873303167420816E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43">
+        <v>9</v>
+      </c>
+      <c r="I43" s="8">
+        <v>2.0361990950226241E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>23</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44" s="8">
+        <v>2.2624434389140269E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45" s="8">
+        <v>2.2624434389140269E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46">
+        <v>48</v>
+      </c>
+      <c r="I46" s="8">
+        <v>0.10859728506787331</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47">
+        <v>10</v>
+      </c>
+      <c r="I47" s="8">
+        <v>2.2624434389140271E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48" s="8">
+        <v>2.2624434389140269E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49">
+        <v>11</v>
+      </c>
+      <c r="I49" s="8">
+        <v>2.48868778280543E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50" s="8">
+        <v>4.5248868778280547E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51" s="8">
+        <v>6.7873303167420816E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>67</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52" s="8">
+        <v>2.2624434389140269E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53" s="8">
+        <v>2.2624434389140269E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54" s="8">
+        <v>4.5248868778280547E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55">
+        <v>3</v>
+      </c>
+      <c r="I55" s="8">
+        <v>6.7873303167420816E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I55" xr:uid="{7F4B7C05-8748-4741-83A6-43B43B9C7447}">
+    <sortState ref="A2:I55">
+      <sortCondition descending="1" ref="G1:G55"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA47520B-B575-4F25-83E4-5BB1E0CD2CA6}">
+  <dimension ref="A1:I55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="11">
+        <v>222</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0.50226244343891402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="11">
+        <v>66</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0.44897959199999998</v>
+      </c>
+      <c r="H3" s="11">
+        <v>59</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0.1334841628959276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="11">
+        <v>48</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0.10859728506787331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1</v>
+      </c>
+      <c r="G5" s="12">
+        <v>6.8027210000000003E-3</v>
+      </c>
+      <c r="H5" s="11">
+        <v>16</v>
+      </c>
+      <c r="I5" s="12">
+        <v>3.6199095022624438E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="11">
+        <v>11</v>
+      </c>
+      <c r="I6" s="12">
+        <v>2.48868778280543E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="11">
+        <v>10</v>
+      </c>
+      <c r="I7" s="12">
+        <v>2.2624434389140271E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="11">
+        <v>9</v>
+      </c>
+      <c r="I8" s="12">
+        <v>2.0361990950226241E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="11">
+        <v>9</v>
+      </c>
+      <c r="I9" s="12">
+        <v>2.0361990950226241E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="11">
+        <v>6</v>
+      </c>
+      <c r="I10" s="12">
+        <v>1.357466063348416E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="11">
+        <v>5</v>
+      </c>
+      <c r="I11" s="12">
+        <v>1.1312217194570141E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="11">
+        <v>5</v>
+      </c>
+      <c r="I12" s="12">
+        <v>1.1312217194570141E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="11">
+        <v>5</v>
+      </c>
+      <c r="I13" s="12">
+        <v>1.1312217194570141E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8">
+        <v>6.8027210000000003E-3</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14" s="8">
+        <v>9.0497737556561094E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15" s="8">
+        <v>6.7873303167420816E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16" s="8">
+        <v>6.7873303167420816E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17" s="8">
+        <v>2.7210884000000001E-2</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17" s="8">
+        <v>6.7873303167420816E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18" s="8">
+        <v>6.7873303167420816E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19" s="8">
+        <v>6.7873303167420816E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20" s="8">
+        <v>4.5248868778280547E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21" s="8">
+        <v>4.5248868778280547E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22" s="8">
+        <v>4.5248868778280547E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" s="8">
+        <v>2.2624434389140269E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F24">
         <v>3</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="8">
         <v>2.0408163E-2</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" s="8">
+        <v>2.2624434389140269E-3</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="8">
         <v>2.2624434389140269E-3</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
         <v>11</v>
       </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
       <c r="E26" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="8">
         <v>2.2624434389140269E-3</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H27">
-        <v>2</v>
-      </c>
-      <c r="I27">
-        <v>4.5248868778280547E-3</v>
+        <v>1</v>
+      </c>
+      <c r="I27" s="8">
+        <v>2.2624434389140269E-3</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>6.8027210000000003E-3</v>
+        <v>15</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" s="8">
+        <v>2.2624434389140269E-3</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29">
-        <v>5</v>
-      </c>
-      <c r="G29">
-        <v>3.4013605000000002E-2</v>
+        <v>23</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" s="8">
+        <v>2.2624434389140269E-3</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
         <v>19</v>
       </c>
-      <c r="D30" t="s">
-        <v>17</v>
-      </c>
       <c r="E30" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30">
-        <v>66</v>
-      </c>
-      <c r="G30">
-        <v>0.44897959199999998</v>
+        <v>7</v>
       </c>
       <c r="H30">
-        <v>59</v>
-      </c>
-      <c r="I30">
-        <v>0.1334841628959276</v>
+        <v>1</v>
+      </c>
+      <c r="I30" s="8">
+        <v>2.2624434389140269E-3</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
         <v>11</v>
       </c>
-      <c r="D31" t="s">
-        <v>12</v>
-      </c>
       <c r="E31" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>6.8027210000000003E-3</v>
+        <v>15</v>
       </c>
       <c r="H31">
-        <v>16</v>
-      </c>
-      <c r="I31">
-        <v>3.6199095022624438E-2</v>
+        <v>1</v>
+      </c>
+      <c r="I31" s="8">
+        <v>2.2624434389140269E-3</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32" s="8">
+        <v>2.7210884000000001E-2</v>
       </c>
       <c r="H32">
-        <v>3</v>
-      </c>
-      <c r="I32">
-        <v>6.7873303167420816E-3</v>
+        <v>1</v>
+      </c>
+      <c r="I32" s="8">
+        <v>2.2624434389140269E-3</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="H33">
-        <v>9</v>
-      </c>
-      <c r="I33">
-        <v>2.0361990950226241E-2</v>
+        <v>1</v>
+      </c>
+      <c r="I33" s="8">
+        <v>2.2624434389140269E-3</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="8">
         <v>2.2624434389140269E-3</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>2.2624434389140269E-3</v>
+        <v>7</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35" s="8">
+        <v>2.0408163E-2</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E36" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="F36">
-        <v>5</v>
-      </c>
-      <c r="G36">
-        <v>3.4013605000000002E-2</v>
+        <v>1</v>
+      </c>
+      <c r="G36" s="8">
+        <v>6.8027210000000003E-3</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37">
-        <v>48</v>
-      </c>
-      <c r="I37">
-        <v>0.10859728506787331</v>
+        <v>15</v>
+      </c>
+      <c r="F37">
+        <v>7</v>
+      </c>
+      <c r="G37" s="8">
+        <v>4.7619047999999997E-2</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E38" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38">
-        <v>10</v>
-      </c>
-      <c r="I38">
-        <v>2.2624434389140271E-2</v>
+        <v>7</v>
+      </c>
+      <c r="F38">
+        <v>14</v>
+      </c>
+      <c r="G38" s="8">
+        <v>9.5238094999999995E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
       </c>
       <c r="E39" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="I39">
-        <v>2.2624434389140269E-3</v>
+        <v>15</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" s="8">
+        <v>6.8027210000000003E-3</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E40" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F40">
-        <v>2</v>
-      </c>
-      <c r="G40">
-        <v>1.3605442000000001E-2</v>
+        <v>3</v>
+      </c>
+      <c r="G40" s="8">
+        <v>2.0408163E-2</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E41" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F41">
-        <v>6</v>
-      </c>
-      <c r="G41">
-        <v>4.0816326999999999E-2</v>
+        <v>1</v>
+      </c>
+      <c r="G41" s="8">
+        <v>6.8027210000000003E-3</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>6.8027210000000003E-3</v>
+        <v>2</v>
+      </c>
+      <c r="G42" s="8">
+        <v>1.3605442000000001E-2</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D43" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43">
-        <v>11</v>
-      </c>
-      <c r="I43">
-        <v>2.48868778280543E-2</v>
+        <v>7</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" s="8">
+        <v>6.8027210000000003E-3</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E44" t="s">
-        <v>21</v>
-      </c>
-      <c r="H44">
-        <v>2</v>
-      </c>
-      <c r="I44">
-        <v>4.5248868778280547E-3</v>
+        <v>15</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+      <c r="G44" s="8">
+        <v>2.0408163E-2</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D45" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E45" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F45">
         <v>1</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="8">
         <v>6.8027210000000003E-3</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
         <v>11</v>
       </c>
-      <c r="D46" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" t="s">
-        <v>13</v>
-      </c>
       <c r="F46">
-        <v>4</v>
-      </c>
-      <c r="G46">
-        <v>2.7210884000000001E-2</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="I46">
-        <v>2.2624434389140269E-3</v>
+        <v>5</v>
+      </c>
+      <c r="G46" s="8">
+        <v>3.4013605000000002E-2</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D47" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E47" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F47">
-        <v>4</v>
-      </c>
-      <c r="G47">
-        <v>2.7210884000000001E-2</v>
-      </c>
-      <c r="H47">
-        <v>3</v>
-      </c>
-      <c r="I47">
-        <v>6.7873303167420816E-3</v>
+        <v>5</v>
+      </c>
+      <c r="G47" s="8">
+        <v>3.4013605000000002E-2</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48" s="8">
+        <v>1.3605442000000001E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49">
+        <v>6</v>
+      </c>
+      <c r="G49" s="8">
+        <v>4.0816326999999999E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" s="8">
+        <v>6.8027210000000003E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
         <v>23</v>
       </c>
-      <c r="E48" t="s">
-        <v>21</v>
-      </c>
-      <c r="H48">
-        <v>3</v>
-      </c>
-      <c r="I48">
-        <v>6.7873303167420816E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>70</v>
-      </c>
-      <c r="B49" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s">
-        <v>25</v>
-      </c>
-      <c r="E49" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49">
-        <v>4</v>
-      </c>
-      <c r="G49">
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" s="8">
+        <v>6.8027210000000003E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="G52" s="8">
         <v>2.7210884000000001E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+      <c r="G53" s="8">
+        <v>2.7210884000000001E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54" s="8">
+        <v>1.3605442000000001E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>71</v>
       </c>
-      <c r="B50" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s">
-        <v>25</v>
-      </c>
-      <c r="E50" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50">
-        <v>4</v>
-      </c>
-      <c r="G50">
-        <v>2.7210884000000001E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>72</v>
-      </c>
-      <c r="B51" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" t="s">
-        <v>29</v>
-      </c>
-      <c r="D51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E51" t="s">
-        <v>21</v>
-      </c>
-      <c r="F51">
-        <v>2</v>
-      </c>
-      <c r="G51">
-        <v>1.3605442000000001E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>73</v>
-      </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
-      <c r="I52">
-        <v>2.2624434389140269E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" t="s">
-        <v>11</v>
-      </c>
-      <c r="H53">
-        <v>1</v>
-      </c>
-      <c r="I53">
-        <v>2.2624434389140269E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>75</v>
-      </c>
-      <c r="C54" t="s">
-        <v>19</v>
-      </c>
-      <c r="H54">
-        <v>2</v>
-      </c>
-      <c r="I54">
-        <v>4.5248868778280547E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>76</v>
+      <c r="B55" t="s">
+        <v>38</v>
       </c>
       <c r="C55" t="s">
-        <v>19</v>
-      </c>
-      <c r="H55">
-        <v>3</v>
-      </c>
-      <c r="I55">
-        <v>6.7873303167420816E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>77</v>
-      </c>
-      <c r="B56" t="s">
-        <v>44</v>
-      </c>
-      <c r="C56" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s">
-        <v>20</v>
-      </c>
-      <c r="E56" t="s">
-        <v>21</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" s="8">
         <v>6.8027210000000003E-3</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I55" xr:uid="{66CC4E77-38E7-447A-88FF-700676DBA7A9}">
+    <sortState ref="A2:I55">
+      <sortCondition descending="1" ref="I1:I55"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>